--- a/data/preprocessed/water.xlsx
+++ b/data/preprocessed/water.xlsx
@@ -379,267 +379,267 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>일반세균(기준:100/ 단위:(CFU/mL))</t>
+          <t>일반세균(기준:100)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>납(기준:0.01/ 단위:(mg/L))</t>
+          <t>납(기준:0.01)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>불소(기준:1.5/ 단위:(mg/L))</t>
+          <t>불소(기준:1.5)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>비소(기준:0.01/ 단위:(mg/L))</t>
+          <t>비소(기준:0.01)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>셀레늄(기준:0.01/ 단위:(mg/L))</t>
+          <t>셀레늄(기준:0.01)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>수은(기준:0.001/ 단위:(mg/L))</t>
+          <t>수은(기준:0.001)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>시안(기준:0.01/ 단위:(mg/L))</t>
+          <t>시안(기준:0.01)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>크롬(기준:0.05/ 단위:(mg/L))</t>
+          <t>크롬(기준:0.05)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>암모니아성질소(기준:0.5/ 단위:(mg/L))</t>
+          <t>암모니아성질소(기준:0.5)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>질산성질소(기준:10/ 단위:(mg/L))</t>
+          <t>질산성질소(기준:10)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>카드뮴(기준:0.005/ 단위:(mg/L))</t>
+          <t>카드뮴(기준:0.005)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>붕소(기준:1/ 단위:(mg/L))</t>
+          <t>붕소(기준:1)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>페놀(기준:0.005/ 단위:(mg/L))</t>
+          <t>페놀(기준:0.005)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>다이아지논(기준:0.02/ 단위:(mg/L))</t>
+          <t>다이아지논(기준:0.02)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>파라티온(기준:0.06/ 단위:(mg/L))</t>
+          <t>파라티온(기준:0.06)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>1,2-디브로모-3-클로로프로판(기준:0.003/ 단위:(mg/L))</t>
+          <t>1,2-디브로모-3-클로로프로판(기준:0.003)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>페니트로티온(기준:0.04/ 단위:(mg/L))</t>
+          <t>페니트로티온(기준:0.04)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>카바릴(기준:0.07/ 단위:(mg/L))</t>
+          <t>카바릴(기준:0.07)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>1,1,1-트리클로로에탄(기준:0.1/ 단위:(mg/L))</t>
+          <t>1,1,1-트리클로로에탄(기준:0.1)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>테트라클로로에틸렌(기준:0.01/ 단위:(mg/L))</t>
+          <t>테트라클로로에틸렌(기준:0.01)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>트리클로로에틸렌(기준:0.03/ 단위:(mg/L))</t>
+          <t>트리클로로에틸렌(기준:0.03)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>디클로로메탄(기준:0.02/ 단위:(mg/L))</t>
+          <t>디클로로메탄(기준:0.02)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>벤젠(기준:0.01/ 단위:(mg/L))</t>
+          <t>벤젠(기준:0.01)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>톨루엔(기준:0.7/ 단위:(mg/L))</t>
+          <t>톨루엔(기준:0.7)</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>에틸벤젠(기준:0.3/ 단위:(mg/L))</t>
+          <t>에틸벤젠(기준:0.3)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>크실렌(기준:0.5/ 단위:(mg/L))</t>
+          <t>크실렌(기준:0.5)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>1,1-디클로로에틸렌(기준:0.03/ 단위:(mg/L))</t>
+          <t>1,1-디클로로에틸렌(기준:0.03)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>사염화탄소(기준:0.002/ 단위:(mg/L))</t>
+          <t>사염화탄소(기준:0.002)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>경도(기준:300/ 단위:(mg/L))</t>
+          <t>경도(기준:300)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>과망간산칼륨소비량(기준:10/ 단위:(mg/L))</t>
+          <t>과망간산칼륨소비량(기준:10)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>동(기준:1/ 단위:(mg/L))</t>
+          <t>동(기준:1)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>색도(기준:5/ 단위:(도))</t>
+          <t>색도(기준:5)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>세제(기준:0.5/ 단위:(mg/L))</t>
+          <t>세제(기준:0.5)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>수소이온농도(기준:5.8 ~ 8.5/ 단위:-)</t>
+          <t>수소이온농도(기준:5.8 ~ 8.5)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>아연(기준:3/ 단위:(mg/L))</t>
+          <t>아연(기준:3)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>염소이온(기준:250/ 단위:(mg/L))</t>
+          <t>염소이온(기준:250)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>증발잔류물(기준:500/ 단위:(mg/L))</t>
+          <t>증발잔류물(기준:500)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>철(기준:0.3/ 단위:(mg/L))</t>
+          <t>철(기준:0.3)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>망간(기준:0.05/ 단위:(mg/L))</t>
+          <t>망간(기준:0.05)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>황산이온(기준:200/ 단위:(mg/L))</t>
+          <t>황산이온(기준:200)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>알루미늄(기준:0.2/ 단위:(mg/L))</t>
+          <t>알루미늄(기준:0.2)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>총트리할로메탄(기준:0.1/ 단위:(mg/L))</t>
+          <t>총트리할로메탄(기준:0.1)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>잔류염소(기준:4/ 단위:(mg/L))</t>
+          <t>잔류염소(기준:4)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>클로로포름(기준:0.08/ 단위:(mg/L))</t>
+          <t>클로로포름(기준:0.08)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>클로랄하이드레이트(기준:0.03/ 단위:(mg/L))</t>
+          <t>클로랄하이드레이트(기준:0.03)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>디브로모아세토니트릴(기준:0.1/ 단위:(mg/L))</t>
+          <t>디브로모아세토니트릴(기준:0.1)</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>디클로로아세토니트릴(기준:0.09/ 단위:(mg/L))</t>
+          <t>디클로로아세토니트릴(기준:0.09)</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>트리클로로아세토니트릴(기준:0.004/ 단위:(mg/L))</t>
+          <t>트리클로로아세토니트릴(기준:0.004)</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>할로아세틱에시드(기준:0.1/ 단위:(mg/L))</t>
+          <t>할로아세틱에시드(기준:0.1)</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>브로모디클로로메탄(기준:0.03/ 단위:(mg/L))</t>
+          <t>브로모디클로로메탄(기준:0.03)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>디브로모클로로메탄(기준:0.1/ 단위:(mg/L))</t>
+          <t>디브로모클로로메탄(기준:0.1)</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>1,4-다이옥산(기준:0.05/ 단위:(mg/L))</t>
+          <t>1,4-다이옥산(기준:0.05)</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>포름알데히드(기준:0.5/ 단위:(mg/L))</t>
+          <t>포름알데히드(기준:0.5)</t>
         </is>
       </c>
     </row>
